--- a/FBG_Needle_Calibration_Data/needle_3CH_4AA/Jig_Calibration_08-05-20/08-05-20_JigCalibration_results_90deg.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_3CH_4AA/Jig_Calibration_08-05-20/08-05-20_JigCalibration_results_90deg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AMIRo\FBG_Needle_Calibration_Data\needle_3CH_4AA\Jig_Calibration_08-05-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF278F7A-597D-4413-94BD-E5018F450142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C0CC85-B6A6-4D80-BFFC-F6A645FEA07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="23610" windowHeight="12930" firstSheet="5" activeTab="8" xr2:uid="{CAC25A53-9E65-49F7-973B-C9FEADB2C5CC}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="23610" windowHeight="12930" xr2:uid="{CAC25A53-9E65-49F7-973B-C9FEADB2C5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summary" sheetId="5" r:id="rId1"/>
@@ -143,10 +143,10 @@
     <t>CH3 | AA4</t>
   </si>
   <si>
-    <t>AA$</t>
+    <t>Active Area 4</t>
   </si>
   <si>
-    <t>Active Area 4</t>
+    <t>AA4</t>
   </si>
 </sst>
 </file>
@@ -19205,7 +19205,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6E327A5-2F35-42F7-A4DD-34AF8D828FA5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19930,8 +19930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5E9E2-F53E-442B-814A-AA14022BCEF8}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14:Y20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19965,7 +19965,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="Y1" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
@@ -19984,8 +19984,8 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
+      <c r="E2" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -20818,7 +20818,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="Y12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
